--- a/Main Task - Yimo/Rewa_Sequence_2.5s, 2.0s.xlsx
+++ b/Main Task - Yimo/Rewa_Sequence_2.5s, 2.0s.xlsx
@@ -49,9 +49,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>color1</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>[-1.0000, 1.0000, -1.0000]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -454,22 +454,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -483,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,13 +503,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
